--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_3_equity_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_3_equity_202111.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -84,16 +84,10 @@
     <t>E4. Does your household have a refrigerator ?</t>
   </si>
   <si>
-    <t>regioin = ${e_region}</t>
-  </si>
-  <si>
     <t>e_mitad</t>
   </si>
   <si>
     <t>E5. Does your household have Electric Mitad?</t>
-  </si>
-  <si>
-    <t>woreda = ${e_woreda}</t>
   </si>
   <si>
     <t>e_table</t>
@@ -139,9 +133,6 @@
     <t>E11. What kind of toilet facility do members of your household usually use?</t>
   </si>
   <si>
-    <t>${e_reason_not_interviewed} = 'Other'</t>
-  </si>
-  <si>
     <t>select_one fuel_type</t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>E13. What is the main material of the floor in your household?</t>
   </si>
   <si>
-    <t>${e_consent} = 'Yes'</t>
-  </si>
-  <si>
     <t>select_one wall_material</t>
   </si>
   <si>
@@ -187,7 +175,7 @@
     <t>e_notes</t>
   </si>
   <si>
-    <t>Addi</t>
+    <t>Additional notes</t>
   </si>
   <si>
     <t>start</t>
@@ -288,10 +276,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -317,6 +305,128 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -326,28 +436,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -361,112 +455,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -483,73 +471,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,109 +645,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,10 +665,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -697,21 +720,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -733,11 +741,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,169 +762,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,8 +1256,8 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
@@ -1387,19 +1375,17 @@
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="13" t="s">
-        <v>22</v>
-      </c>
+      <c r="L5" s="13"/>
     </row>
     <row r="6" s="6" customFormat="1" spans="1:12">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D6" s="9"/>
       <c r="F6" s="7" t="s">
@@ -1410,22 +1396,22 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
-      <c r="L6" s="13" t="s">
-        <v>25</v>
-      </c>
+      <c r="L6" s="13"/>
     </row>
     <row r="7" s="6" customFormat="1" spans="1:11">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="9"/>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -1437,13 +1423,15 @@
         <v>12</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="9"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -1456,10 +1444,10 @@
         <v>12</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="9"/>
       <c r="F9" s="7" t="s">
@@ -1471,10 +1459,10 @@
         <v>12</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9"/>
       <c r="F10" s="7" t="s">
@@ -1483,46 +1471,43 @@
     </row>
     <row r="11" ht="25.5" spans="1:6">
       <c r="A11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>36</v>
       </c>
       <c r="D11" s="10"/>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="25.5" spans="1:10">
+    <row r="12" ht="25.5" spans="1:6">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="10"/>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="13" ht="25.5" spans="1:11">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D13" s="10"/>
       <c r="F13" s="7" t="s">
@@ -1531,89 +1516,80 @@
       <c r="J13" s="7"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" ht="25.5" spans="1:10">
+    <row r="14" ht="25.5" spans="1:6">
       <c r="A14" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D14" s="10"/>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" ht="25.5" spans="1:10">
+    </row>
+    <row r="15" ht="25.5" spans="1:7">
       <c r="A15" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D15" s="10"/>
       <c r="F15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="7"/>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" ht="25.5" spans="1:7">
+      <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" ht="25.5" spans="1:10">
-      <c r="A16" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10"/>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="J16" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D17" s="10"/>
       <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1650,7 +1626,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
@@ -1659,188 +1635,188 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1873,24 +1849,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2"/>
     </row>

--- a/Coverage Survey/Ethiopia/et_ces_sch_sth_3_equity_202111.xlsx
+++ b/Coverage Survey/Ethiopia/et_ces_sch_sth_3_equity_202111.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\Coverage Survey\Ethiopia\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3284F04E-D1EA-4813-B8C0-41F5CA8AB5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -274,14 +280,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -304,159 +304,8 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -469,194 +318,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -664,251 +327,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -934,61 +355,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1246,36 +623,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="19.7083333333333" customWidth="1"/>
+    <col min="1" max="1" width="19.703125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="4" width="45.875" customWidth="1"/>
-    <col min="5" max="5" width="25.2833333333333" customWidth="1"/>
+    <col min="3" max="4" width="45.87890625" customWidth="1"/>
+    <col min="5" max="5" width="25.29296875" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="16.2833333333333" customWidth="1"/>
-    <col min="8" max="8" width="28.5666666666667" customWidth="1"/>
-    <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
-    <col min="11" max="11" width="11.375" customWidth="1"/>
-    <col min="12" max="12" width="16.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.29296875" customWidth="1"/>
+    <col min="8" max="8" width="28.5859375" customWidth="1"/>
+    <col min="9" max="9" width="12.3515625" customWidth="1"/>
+    <col min="10" max="10" width="22.234375" customWidth="1"/>
+    <col min="11" max="11" width="11.3515625" customWidth="1"/>
+    <col min="12" max="12" width="16.703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="1:13">
+    <row r="1" spans="1:13" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +692,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" s="7" t="s">
         <v>12</v>
       </c>
@@ -1330,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:13">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -1346,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:13">
       <c r="A4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1361,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -1377,7 +755,7 @@
       </c>
       <c r="L5" s="13"/>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:12">
+    <row r="6" spans="1:13" s="6" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
@@ -1398,7 +776,7 @@
       <c r="K6" s="11"/>
       <c r="L6" s="13"/>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:11">
+    <row r="7" spans="1:13" s="6" customFormat="1">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1418,7 +796,7 @@
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
     </row>
-    <row r="8" s="6" customFormat="1" spans="1:12">
+    <row r="8" spans="1:13" s="6" customFormat="1">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -1439,7 +817,7 @@
       <c r="K8" s="11"/>
       <c r="L8" s="13"/>
     </row>
-    <row r="9" ht="25.5" spans="1:6">
+    <row r="9" spans="1:13" ht="25.35">
       <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
@@ -1454,7 +832,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" ht="25.5" spans="1:6">
+    <row r="10" spans="1:13" ht="25.35">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -1469,7 +847,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" ht="25.5" spans="1:6">
+    <row r="11" spans="1:13" ht="25.35">
       <c r="A11" s="8" t="s">
         <v>32</v>
       </c>
@@ -1484,7 +862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="25.5" spans="1:6">
+    <row r="12" spans="1:13" ht="25.35">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1499,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="25.5" spans="1:11">
+    <row r="13" spans="1:13" ht="25.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -1516,7 +894,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="11"/>
     </row>
-    <row r="14" ht="25.5" spans="1:6">
+    <row r="14" spans="1:13" ht="25.35">
       <c r="A14" s="7" t="s">
         <v>41</v>
       </c>
@@ -1531,7 +909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" ht="25.5" spans="1:7">
+    <row r="15" spans="1:13" ht="25.35">
       <c r="A15" s="7" t="s">
         <v>44</v>
       </c>
@@ -1547,7 +925,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" ht="25.5" spans="1:7">
+    <row r="16" spans="1:13" ht="25.35">
       <c r="A16" s="11" t="s">
         <v>47</v>
       </c>
@@ -1576,7 +954,7 @@
       <c r="D17" s="10"/>
       <c r="F17" s="7"/>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1584,7 +962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1604,7 +982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1612,19 +990,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="A22" sqref="A22:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="4" width="19.8583333333333" customWidth="1"/>
-    <col min="5" max="5" width="13.2833333333333" customWidth="1"/>
+    <col min="1" max="1" width="17.46875" customWidth="1"/>
+    <col min="2" max="4" width="19.87890625" customWidth="1"/>
+    <col min="5" max="5" width="13.29296875" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" spans="1:7">
+    <row r="1" spans="1:7" s="3" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
@@ -1643,7 +1020,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1654,7 +1031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1665,7 +1042,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1676,7 +1053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -1687,7 +1064,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1698,7 +1075,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>66</v>
       </c>
@@ -1709,7 +1086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>66</v>
       </c>
@@ -1720,7 +1097,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -1731,7 +1108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>69</v>
       </c>
@@ -1742,7 +1119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -1753,7 +1130,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -1831,7 +1208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1841,13 +1218,13 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.425" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="11.41015625" defaultRowHeight="12.7"/>
   <cols>
     <col min="1" max="1" width="55" customWidth="1"/>
-    <col min="2" max="2" width="45.425" customWidth="1"/>
+    <col min="2" max="2" width="45.41015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
